--- a/Hardware/KiCad Project/Tempmonitor.xlsx
+++ b/Hardware/KiCad Project/Tempmonitor.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Part/Designator</t>
   </si>
   <si>
-    <t>Seeed SKU/ Mfr. Part #</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -58,6 +55,45 @@
   </si>
   <si>
     <t>USB1</t>
+  </si>
+  <si>
+    <t>SYD3642ASR</t>
+  </si>
+  <si>
+    <t>MFR</t>
+  </si>
+  <si>
+    <t>Seeed SKU</t>
+  </si>
+  <si>
+    <t>TAJC476K006RNJ</t>
+  </si>
+  <si>
+    <t>ATMEGA16U2-MU</t>
+  </si>
+  <si>
+    <t>TM1637</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN100</t>
+  </si>
+  <si>
+    <t>X053201602002</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB105</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0402FR-0722RL</t>
+  </si>
+  <si>
+    <t>MF-MSMF050-2</t>
+  </si>
+  <si>
+    <t>ST-USB-001G</t>
   </si>
 </sst>
 </file>
@@ -887,143 +923,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>304080005</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>302020005</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>310010018</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>310040027</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>302010001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>306010054</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>302010139</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>301010361</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>301010052</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>307010040</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>320010000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Hardware/KiCad Project/Tempmonitor.xlsx
+++ b/Hardware/KiCad Project/Tempmonitor.xlsx
@@ -57,13 +57,13 @@
     <t>USB1</t>
   </si>
   <si>
+    <t>Seeed SKU</t>
+  </si>
+  <si>
+    <t>MFR</t>
+  </si>
+  <si>
     <t>SYD3642ASR</t>
-  </si>
-  <si>
-    <t>MFR</t>
-  </si>
-  <si>
-    <t>Seeed SKU</t>
   </si>
   <si>
     <t>TAJC476K006RNJ</t>
@@ -926,13 +926,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -941,12 +941,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -957,10 +957,10 @@
       <c r="B2" s="1">
         <v>304080005</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
     </row>
@@ -971,10 +971,10 @@
       <c r="B3" s="1">
         <v>302020005</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -985,10 +985,10 @@
       <c r="B4" s="1">
         <v>310010018</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -999,10 +999,10 @@
       <c r="B5" s="1">
         <v>310040027</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
@@ -1013,10 +1013,10 @@
       <c r="B6" s="1">
         <v>302010001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>2</v>
       </c>
     </row>
@@ -1027,10 +1027,10 @@
       <c r="B7" s="1">
         <v>306010054</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -1041,10 +1041,10 @@
       <c r="B8" s="1">
         <v>302010139</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
@@ -1055,10 +1055,10 @@
       <c r="B9" s="1">
         <v>301010361</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>9</v>
       </c>
     </row>
@@ -1069,10 +1069,10 @@
       <c r="B10" s="1">
         <v>301010052</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
@@ -1083,10 +1083,10 @@
       <c r="B11" s="1">
         <v>307010040</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
@@ -1097,10 +1097,10 @@
       <c r="B12" s="1">
         <v>320010000</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
